--- a/Archivos de trabajo/Informes/Excel/9.xlsx
+++ b/Archivos de trabajo/Informes/Excel/9.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,6 +538,16 @@
           <t>H. 100</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Tardanzas</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Retiros</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -597,12 +607,18 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>1.13</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -624,7 +640,7 @@
         <v>44106</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>44105.94722222222</v>
+        <v>44106.00347222222</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>44106.33819444444</v>
@@ -664,12 +680,18 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>0.1</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -731,12 +753,18 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>1.25</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,12 +826,18 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>1.35</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -865,12 +899,18 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>1.33</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -932,12 +972,18 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
       </c>
       <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -999,12 +1045,18 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>1.1</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1066,12 +1118,18 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1141,6 +1199,12 @@
       <c r="S10" t="n">
         <v>0</v>
       </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1200,12 +1264,18 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0.75</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1267,7 +1337,7 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>1.12</v>
@@ -1275,674 +1345,10 @@
       <c r="S12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>202</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANDREANI JOSUE LEON </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Jueves</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>44105</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>44105.2625</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>44105.62638888889</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>44105</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>44105</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>44105</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>44105</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>44105</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>44105</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>44105</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>44105</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q13" t="n">
-        <v>8</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>202</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANDREANI JOSUE LEON </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Viernes</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>44106</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>44106.26180555556</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>44106.62777777778</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>44106</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>44106</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>44106</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>44106</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>44106</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>44106</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>44106</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>44106</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>8</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>202</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANDREANI JOSUE LEON </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Lunes</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>44109</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>44109.59583333333</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>44109.95972222222</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>44109</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>44109</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>44109</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>44109</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>44109</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>44109</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>44109</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>44109</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q15" t="n">
-        <v>8</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>202</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANDREANI JOSUE LEON </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Martes</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>44110</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>44110.59791666668</v>
-      </c>
-      <c r="F16" s="5" t="n">
-        <v>44110.95972222222</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>44110</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>44110</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>44110</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>44110</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>44110</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>44110</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>44110</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>44110</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q16" t="n">
-        <v>8</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>202</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANDREANI JOSUE LEON </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Miércoles</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>44111</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>44111.59444444445</v>
-      </c>
-      <c r="F17" s="5" t="n">
-        <v>44111.95902777778</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <v>44111</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <v>44111</v>
-      </c>
-      <c r="I17" s="5" t="n">
-        <v>44111</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>44111</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>44111</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>44111</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>44111</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>44111</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>8</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>202</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANDREANI JOSUE LEON </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Jueves</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>44112</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>44112.59652777778</v>
-      </c>
-      <c r="F18" s="5" t="n">
-        <v>44112.95902777778</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>44112</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>44112</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <v>44112</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>44112</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>44112</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>44112</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>44112</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>44112</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>8</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>202</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANDREANI JOSUE LEON </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Viernes</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>44113</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>44113.59513888889</v>
-      </c>
-      <c r="F19" s="5" t="n">
-        <v>44113.95902777778</v>
-      </c>
-      <c r="G19" s="5" t="n">
-        <v>44113</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>44113</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>44113</v>
-      </c>
-      <c r="J19" s="5" t="n">
-        <v>44113</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>44113</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>44113</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>44113</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>44113</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q19" t="n">
-        <v>8</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>202</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANDREANI JOSUE LEON </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Lunes</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>44116</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>44116</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>44116</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>44116</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>44116</v>
-      </c>
-      <c r="I20" s="5" t="n">
-        <v>44116</v>
-      </c>
-      <c r="J20" s="5" t="n">
-        <v>44116</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>44116</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>44116</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>44116</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>44116</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Otro</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Feriado</t>
-        </is>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>202</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANDREANI JOSUE LEON </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Miércoles</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>44118</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>44117.92708333334</v>
-      </c>
-      <c r="F21" s="5" t="n">
-        <v>44118.29236111111</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>44118</v>
-      </c>
-      <c r="H21" s="5" t="n">
-        <v>44118</v>
-      </c>
-      <c r="I21" s="5" t="n">
-        <v>44118</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>44118</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>44118</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>44118</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>44118</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>44118</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q21" t="n">
-        <v>8</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>202</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANDREANI JOSUE LEON </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Jueves</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>44119</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>44118.92708333334</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>44119.29097222222</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>44119</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>44119</v>
-      </c>
-      <c r="I22" s="5" t="n">
-        <v>44119</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>44119</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>44119</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>44119</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>44119</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>44119</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
-        <v>7.98</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S22" t="n">
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1957,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1973,7 +1379,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nombre_x</t>
+          <t>Nombre</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1993,25 +1399,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Tardanzas</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Retiros</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Dias Trabajados</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Nombre_y</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Hs. Noche</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Hs. Tarde</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Mins. Tardanzas</t>
         </is>
@@ -2027,66 +1438,31 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>11.71</v>
+        <v>10.46</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MENDOZA JOSE IGNACIO </t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>202</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANDREANI JOSUE LEON </t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>71.98</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ANDREANI JOSUE LEON </t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
+      <c r="K2" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
